--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular Projects\hms_clone\DB structure\DataBase-Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
     <sheet name="dish" sheetId="2" r:id="rId2"/>
+    <sheet name="clientCategory" sheetId="4" r:id="rId3"/>
+    <sheet name="clientBankDetail" sheetId="5" r:id="rId4"/>
+    <sheet name="userConfig" sheetId="6" r:id="rId5"/>
+    <sheet name="Client" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>Data types</t>
   </si>
@@ -79,19 +83,75 @@
   </si>
   <si>
     <t>imageUrl</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>nonVegCategory</t>
+  </si>
+  <si>
+    <t>cookingTime</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>gst</t>
+  </si>
+  <si>
+    <t>foodclass</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>ifscCode</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,8 +209,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Property name"/>
     <tableColumn id="2" name="Data types"/>
@@ -422,18 +533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -444,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -452,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -470,20 +581,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -494,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -510,7 +621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -521,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -529,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -537,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -545,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -553,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -561,7 +672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -569,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -577,12 +688,330 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular Projects\hms_clone\DB structure\DataBase-Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Database structure\DataBase-Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71C5E1-0D31-443C-BB44-8BBC200C8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Data types</t>
   </si>
@@ -135,11 +136,17 @@
   <si>
     <t>email</t>
   </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,72 +204,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table15" displayName="Table15" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table14" displayName="Table14" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,21 +537,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -555,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -563,12 +570,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -580,21 +595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -605,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -613,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -621,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -632,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -640,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -648,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -656,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -664,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -672,7 +687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -680,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -688,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -696,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -704,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -712,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -720,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -738,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -763,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -771,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -788,21 +803,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -813,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -821,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -829,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -837,7 +852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -845,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -853,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -870,21 +885,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -895,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -903,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -911,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -919,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -936,21 +951,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -969,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -977,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>

--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Database structure\DataBase-Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71C5E1-0D31-443C-BB44-8BBC200C8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BDE433-AE55-4EEB-B25B-095A94A7D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>Data types</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
 </sst>
 </file>
@@ -538,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,14 +570,6 @@
       </c>
       <c r="B3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Database structure\DataBase-Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BDE433-AE55-4EEB-B25B-095A94A7D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806F07B-58E9-4365-A108-2D340E20D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>categoryId</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
     <t>accountNumber</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>accountName</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>

--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Database structure\DataBase-Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataBaseStructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806F07B-58E9-4365-A108-2D340E20D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,9 @@
     <sheet name="clientCategory" sheetId="4" r:id="rId3"/>
     <sheet name="clientBankDetail" sheetId="5" r:id="rId4"/>
     <sheet name="userConfig" sheetId="6" r:id="rId5"/>
-    <sheet name="Client" sheetId="3" r:id="rId6"/>
+    <sheet name="City" sheetId="7" r:id="rId6"/>
+    <sheet name="Client" sheetId="3" r:id="rId7"/>
+    <sheet name="State" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>Data types</t>
   </si>
@@ -136,12 +137,21 @@
   <si>
     <t>accountName</t>
   </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +164,30 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,15 +195,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,72 +259,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Property name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data types"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default values"/>
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Property name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Data types"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Default values"/>
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table15" displayName="Table15" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Property name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Data types"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Default values"/>
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Property name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Data types"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Default values"/>
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Property name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Data types"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default values"/>
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table14" displayName="Table14" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Property name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Data types"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Default values"/>
+    <tableColumn id="1" name="Property name"/>
+    <tableColumn id="2" name="Data types"/>
+    <tableColumn id="3" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,7 +592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -581,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -739,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -789,10 +850,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -871,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,6 +989,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -937,7 +1022,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,4 +1150,48 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
     <sheet name="dish" sheetId="2" r:id="rId2"/>
-    <sheet name="clientCategory" sheetId="4" r:id="rId3"/>
-    <sheet name="clientBankDetail" sheetId="5" r:id="rId4"/>
-    <sheet name="userConfig" sheetId="6" r:id="rId5"/>
-    <sheet name="City" sheetId="7" r:id="rId6"/>
-    <sheet name="Client" sheetId="3" r:id="rId7"/>
-    <sheet name="State" sheetId="8" r:id="rId8"/>
+    <sheet name="BankDetails" sheetId="5" r:id="rId3"/>
+    <sheet name="userConfig" sheetId="6" r:id="rId4"/>
+    <sheet name="City" sheetId="7" r:id="rId5"/>
+    <sheet name="Admin" sheetId="3" r:id="rId6"/>
+    <sheet name="State" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>Data types</t>
   </si>
@@ -102,9 +101,6 @@
     <t>cookingTime</t>
   </si>
   <si>
-    <t>business</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -114,12 +110,6 @@
     <t>foodclass</t>
   </si>
   <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>categoryId</t>
-  </si>
-  <si>
     <t>accountNumber</t>
   </si>
   <si>
@@ -145,6 +135,39 @@
   </si>
   <si>
     <t>pincode</t>
+  </si>
+  <si>
+    <t>UPICodeImg</t>
+  </si>
+  <si>
+    <t>UPICodeNumber</t>
+  </si>
+  <si>
+    <t>businessName</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>foodLincNum</t>
+  </si>
+  <si>
+    <t>bankDetails</t>
+  </si>
+  <si>
+    <t>BankDetails</t>
+  </si>
+  <si>
+    <t>restaurentLogo</t>
+  </si>
+  <si>
+    <t>restaurentSeal</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>termAndCondition</t>
   </si>
 </sst>
 </file>
@@ -283,8 +306,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Property name"/>
     <tableColumn id="2" name="Data types"/>
@@ -295,18 +318,6 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:C8" totalsRowShown="0">
   <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
@@ -318,9 +329,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Property name"/>
     <tableColumn id="2" name="Data types"/>
@@ -801,10 +812,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,10 +928,50 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -849,17 +982,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -885,7 +1062,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -893,23 +1070,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -920,6 +1097,59 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -931,232 +1161,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
     <sheet name="dish" sheetId="2" r:id="rId2"/>
     <sheet name="BankDetails" sheetId="5" r:id="rId3"/>
-    <sheet name="userConfig" sheetId="6" r:id="rId4"/>
-    <sheet name="City" sheetId="7" r:id="rId5"/>
-    <sheet name="Admin" sheetId="3" r:id="rId6"/>
-    <sheet name="State" sheetId="8" r:id="rId7"/>
+    <sheet name="USerFeedback" sheetId="9" r:id="rId4"/>
+    <sheet name="userConfig" sheetId="6" r:id="rId5"/>
+    <sheet name="City" sheetId="7" r:id="rId6"/>
+    <sheet name="Admin" sheetId="3" r:id="rId7"/>
+    <sheet name="State" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>Data types</t>
   </si>
@@ -168,6 +169,21 @@
   </si>
   <si>
     <t>termAndCondition</t>
+  </si>
+  <si>
+    <t>ratings</t>
+  </si>
+  <si>
+    <t>opinionText</t>
+  </si>
+  <si>
+    <t>reviewTitle</t>
+  </si>
+  <si>
+    <t>termsAccept</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -656,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -814,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +909,82 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" activeCellId="1" sqref="B6 C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -982,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1026,7 +1118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1161,7 +1253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/dataBaseStructure.xlsx
+++ b/dataBaseStructure.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataBaseStructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Database structure\DataBase-Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D39204-2097-4A20-B59F-AB5DDD7360AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="15" yWindow="255" windowWidth="11310" windowHeight="10485" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dishCategory" sheetId="1" r:id="rId1"/>
-    <sheet name="dish" sheetId="2" r:id="rId2"/>
+    <sheet name="DishCategory" sheetId="1" r:id="rId1"/>
+    <sheet name="Dish" sheetId="2" r:id="rId2"/>
     <sheet name="BankDetails" sheetId="5" r:id="rId3"/>
-    <sheet name="USerFeedback" sheetId="9" r:id="rId4"/>
-    <sheet name="userConfig" sheetId="6" r:id="rId5"/>
-    <sheet name="City" sheetId="7" r:id="rId6"/>
-    <sheet name="Admin" sheetId="3" r:id="rId7"/>
-    <sheet name="State" sheetId="8" r:id="rId8"/>
+    <sheet name="UserFeedback" sheetId="9" r:id="rId4"/>
+    <sheet name="City" sheetId="7" r:id="rId5"/>
+    <sheet name="User" sheetId="10" r:id="rId6"/>
+    <sheet name="BusinessCategory" sheetId="11" r:id="rId7"/>
+    <sheet name="Admin" sheetId="3" r:id="rId8"/>
+    <sheet name="State" sheetId="8" r:id="rId9"/>
+    <sheet name="UserConfig" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="69">
   <si>
     <t>Data types</t>
   </si>
@@ -45,36 +48,15 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>halfPrice</t>
-  </si>
-  <si>
-    <t>fullPrice</t>
-  </si>
-  <si>
-    <t>mainCategoryId</t>
-  </si>
-  <si>
     <t>Undefined</t>
   </si>
   <si>
-    <t>mianCategoryName</t>
-  </si>
-  <si>
-    <t>isVeg</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -87,30 +69,12 @@
     <t>imageUrl</t>
   </si>
   <si>
-    <t>qty</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>nonVegCategory</t>
-  </si>
-  <si>
-    <t>cookingTime</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>gst</t>
-  </si>
-  <si>
-    <t>foodclass</t>
-  </si>
-  <si>
     <t>accountNumber</t>
   </si>
   <si>
@@ -120,76 +84,169 @@
     <t>ifscCode</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>accountName</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
     <t>UPICodeImg</t>
   </si>
   <si>
     <t>UPICodeNumber</t>
   </si>
   <si>
-    <t>businessName</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>foodLincNum</t>
-  </si>
-  <si>
-    <t>bankDetails</t>
-  </si>
-  <si>
-    <t>BankDetails</t>
-  </si>
-  <si>
-    <t>restaurentLogo</t>
-  </si>
-  <si>
-    <t>restaurentSeal</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>termAndCondition</t>
-  </si>
-  <si>
-    <t>ratings</t>
-  </si>
-  <si>
-    <t>opinionText</t>
-  </si>
-  <si>
-    <t>reviewTitle</t>
-  </si>
-  <si>
-    <t>termsAccept</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>HalfPrice</t>
+  </si>
+  <si>
+    <t>FullPrice</t>
+  </si>
+  <si>
+    <t>HotelId</t>
+  </si>
+  <si>
+    <t>MainCategoryId</t>
+  </si>
+  <si>
+    <t>DishCategory</t>
+  </si>
+  <si>
+    <t>IsVeg</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>TimeForCook</t>
+  </si>
+  <si>
+    <t>NonVegCategory</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>OpinionText</t>
+  </si>
+  <si>
+    <t>ReviewTitle</t>
+  </si>
+  <si>
+    <t>TermsAccept</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>CityId</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>StateId</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>FoodLincNum</t>
+  </si>
+  <si>
+    <t>Gst</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>IfscCode</t>
+  </si>
+  <si>
+    <t>BankAddress</t>
+  </si>
+  <si>
+    <t>RestaurentLogo</t>
+  </si>
+  <si>
+    <t>RestaurentSeal</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>TermAndCondition</t>
+  </si>
+  <si>
+    <t>CodeImage</t>
+  </si>
+  <si>
+    <t>CodeNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data type</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>not in data base</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,60 +356,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table16" displayName="Table16" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table14" displayName="Table14" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table17" displayName="Table17" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Property name"/>
-    <tableColumn id="2" name="Data types"/>
-    <tableColumn id="3" name="Default values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Property name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Data types"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Default values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,18 +704,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +734,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,122 +879,136 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -854,50 +1048,50 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -909,11 +1103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="B6 C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,48 +1130,63 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,101 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,33 +1216,179 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D4E01C-EF8A-42E0-8658-B456189C12C5}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A92FD8-54BB-451E-86BA-7D922CB8A115}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,103 +1411,162 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1253,12 +1577,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,19 +1600,19 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
     </row>
